--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Centrale\EPSA\Maquette_Optimus\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB67E8-2B20-4737-A217-2147813BDBE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="19090" yWindow="-2190" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>System</t>
   </si>
@@ -57,18 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -110,11 +104,71 @@
   <si>
     <t>Cooling system</t>
   </si>
+  <si>
+    <t>Radiator</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Main coolant line</t>
+  </si>
+  <si>
+    <t>EN_06007</t>
+  </si>
+  <si>
+    <t>EN_06008</t>
+  </si>
+  <si>
+    <t>Secondary coolant line</t>
+  </si>
+  <si>
+    <t>Fixing tube</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Engine cooling unit</t>
+  </si>
+  <si>
+    <t>Force airflow through the radiator</t>
+  </si>
+  <si>
+    <t>Allows coolant expansion</t>
+  </si>
+  <si>
+    <t>Maintain the radiator to the frame</t>
+  </si>
+  <si>
+    <t>Wielded on the radiator</t>
+  </si>
+  <si>
+    <t>Coolant line between engine and radiator</t>
+  </si>
+  <si>
+    <t>Line from engine to expansion tank</t>
+  </si>
+  <si>
+    <t>Expansion tank tab</t>
+  </si>
+  <si>
+    <t>Radiator tab</t>
+  </si>
+  <si>
+    <t>Expansion tank</t>
+  </si>
+  <si>
+    <t>Wielded on the expansion tank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,27 +583,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -572,133 +626,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Centrale\EPSA\Maquette_Optimus\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB67E8-2B20-4737-A217-2147813BDBE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-2190" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-2196" windowWidth="25824" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,9 +143,6 @@
     <t>Maintain the radiator to the frame</t>
   </si>
   <si>
-    <t>Wielded on the radiator</t>
-  </si>
-  <si>
     <t>Coolant line between engine and radiator</t>
   </si>
   <si>
@@ -162,13 +158,16 @@
     <t>Expansion tank</t>
   </si>
   <si>
-    <t>Wielded on the expansion tank</t>
+    <t>Welded on the radiator</t>
+  </si>
+  <si>
+    <t>Welded on the expansion tank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,27 +582,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -641,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -660,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -679,11 +678,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
@@ -698,7 +697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -717,17 +716,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -736,11 +735,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
@@ -755,7 +754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -765,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -774,7 +773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -784,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>

--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -80,9 +80,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>EN_A0006</t>
-  </si>
-  <si>
     <t>EN_06001</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Welded on the expansion tank</t>
+  </si>
+  <si>
+    <t>EN_A0600</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,166 +630,166 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-2196" windowWidth="25824" windowHeight="14160"/>
+    <workbookView xWindow="19092" yWindow="-2196" windowWidth="25824" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EN_A0600" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>System</t>
   </si>
@@ -163,12 +164,48 @@
   <si>
     <t>EN_A0600</t>
   </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>EN_A0600_P</t>
+  </si>
+  <si>
+    <t>EN - Cooling system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +248,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +290,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,11 +352,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -302,6 +380,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,9 +678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,4 +889,369 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Centrale\EPSA\Maquette_Optimus\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCD0BB-305A-4A9C-9EA1-3FAAFE51E078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-2196" windowWidth="25824" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0600" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
   <si>
     <t>System</t>
   </si>
@@ -153,9 +154,6 @@
     <t>Radiator tab</t>
   </si>
   <si>
-    <t>Expansion tank</t>
-  </si>
-  <si>
     <t>Welded on the radiator</t>
   </si>
   <si>
@@ -180,9 +178,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
     <t>Tba</t>
   </si>
   <si>
@@ -192,19 +187,172 @@
     <t>Fasteners</t>
   </si>
   <si>
-    <t>Tooling</t>
-  </si>
-  <si>
     <t>EN_A0600_P</t>
   </si>
   <si>
     <t>EN - Cooling system</t>
+  </si>
+  <si>
+    <t>Tie straps, blower</t>
+  </si>
+  <si>
+    <t>Aluminum, 2017A</t>
+  </si>
+  <si>
+    <t>Radiator tabs material</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Laser cut setup, install and remove</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Expansion tank base</t>
+  </si>
+  <si>
+    <t>Expansion tank filler neck</t>
+  </si>
+  <si>
+    <t>Welded to expansion tank base</t>
+  </si>
+  <si>
+    <t>EN_06009</t>
+  </si>
+  <si>
+    <t>EN_06010</t>
+  </si>
+  <si>
+    <t>Expansion tank cap</t>
+  </si>
+  <si>
+    <t>Tubing, Aluminum, 2017A</t>
+  </si>
+  <si>
+    <t>Expansion tank core</t>
+  </si>
+  <si>
+    <t>Welding base to core</t>
+  </si>
+  <si>
+    <t>Expansion tank tab material</t>
+  </si>
+  <si>
+    <t>Welding (Aluminum)</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Expansion tank base laser cut</t>
+  </si>
+  <si>
+    <t>Expansion tank tube cutting</t>
+  </si>
+  <si>
+    <t>Fitting, Weld-in, Male, Aluminum</t>
+  </si>
+  <si>
+    <t>For Dash4 connection, expansion tank</t>
+  </si>
+  <si>
+    <t>Tubing cut</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>rubber hoses to stainless hoses</t>
+  </si>
+  <si>
+    <t>Fluid, demineralized water</t>
+  </si>
+  <si>
+    <t>Coolant</t>
+  </si>
+  <si>
+    <t>Expansion tank filler neck to base</t>
+  </si>
+  <si>
+    <t>Radiator tabs to radiator</t>
+  </si>
+  <si>
+    <t>Expansion tank tab to base</t>
+  </si>
+  <si>
+    <t>Fixations between rad and fan</t>
+  </si>
+  <si>
+    <t>Install tie straps</t>
+  </si>
+  <si>
+    <t>Fill with liquids</t>
+  </si>
+  <si>
+    <t>Fill with coolant</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Secondary coolant line to expansion tank</t>
+  </si>
+  <si>
+    <t>Hose clamps</t>
+  </si>
+  <si>
+    <t>Hose clamps install</t>
+  </si>
+  <si>
+    <t>Tighten bolts</t>
+  </si>
+  <si>
+    <t>Attach rad to frame</t>
+  </si>
+  <si>
+    <t>Attach fan to radiator</t>
+  </si>
+  <si>
+    <t>Attach rad to fixing bar</t>
+  </si>
+  <si>
+    <t>Attach fixing bar to frame</t>
+  </si>
+  <si>
+    <t>Expansion tank to frame</t>
+  </si>
+  <si>
+    <t>Install expansion tank cap</t>
+  </si>
+  <si>
+    <t>Install tie wraps</t>
+  </si>
+  <si>
+    <t>Tighten main coolant line hose clamps</t>
+  </si>
+  <si>
+    <t>Nut, grade 8.8</t>
+  </si>
+  <si>
+    <t>Nuts for radiator, fixing bar and exp. tank</t>
+  </si>
+  <si>
+    <t>2L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -396,6 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,27 +824,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -730,10 +879,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -752,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -771,11 +920,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
@@ -790,17 +939,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -809,36 +958,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -847,42 +996,80 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -892,39 +1079,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -936,9 +1124,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -947,13 +1135,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
@@ -963,292 +1151,981 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>42</v>
+        <v>93</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>42</v>
+        <v>95</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="E58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="8">
+        <v>2</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Centrale\EPSA\Maquette_Optimus\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCD0BB-305A-4A9C-9EA1-3FAAFE51E078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0600" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
   <si>
     <t>System</t>
   </si>
@@ -247,27 +246,15 @@
     <t>Welding (Aluminum)</t>
   </si>
   <si>
-    <t>Machining setup, install and remove</t>
-  </si>
-  <si>
     <t>Expansion tank base laser cut</t>
   </si>
   <si>
-    <t>Expansion tank tube cutting</t>
-  </si>
-  <si>
     <t>Fitting, Weld-in, Male, Aluminum</t>
   </si>
   <si>
     <t>For Dash4 connection, expansion tank</t>
   </si>
   <si>
-    <t>Tubing cut</t>
-  </si>
-  <si>
-    <t>Bending</t>
-  </si>
-  <si>
     <t>Drilled hole</t>
   </si>
   <si>
@@ -289,18 +276,12 @@
     <t>Expansion tank tab to base</t>
   </si>
   <si>
-    <t>Fixations between rad and fan</t>
-  </si>
-  <si>
     <t>Install tie straps</t>
   </si>
   <si>
     <t>Fill with liquids</t>
   </si>
   <si>
-    <t>Fill with coolant</t>
-  </si>
-  <si>
     <t>Assemble by hand</t>
   </si>
   <si>
@@ -347,12 +328,30 @@
   </si>
   <si>
     <t>2L</t>
+  </si>
+  <si>
+    <t>Fill coolant line with water</t>
+  </si>
+  <si>
+    <t>Saw or tubing cut</t>
+  </si>
+  <si>
+    <t>Cut the expansion tank core</t>
+  </si>
+  <si>
+    <t>Press operations</t>
+  </si>
+  <si>
+    <t>To flatten the tube at both ends</t>
+  </si>
+  <si>
+    <t>Fixations between rad. and fan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -832,19 +831,19 @@
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -882,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -901,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -920,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -939,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -958,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -977,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -996,7 +995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1015,7 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1034,7 +1033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1053,7 +1052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1079,26 +1078,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -1154,7 +1153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1162,17 +1161,17 @@
         <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1180,17 +1179,17 @@
         <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1201,14 +1200,14 @@
         <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1216,17 +1215,17 @@
         <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1234,17 +1233,17 @@
         <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1252,17 +1251,17 @@
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1270,17 +1269,17 @@
         <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1291,14 +1290,14 @@
         <v>62</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1309,14 +1308,14 @@
         <v>62</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1324,17 +1323,17 @@
         <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1342,17 +1341,17 @@
         <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1360,17 +1359,17 @@
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1378,17 +1377,17 @@
         <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1396,17 +1395,17 @@
         <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1414,17 +1413,17 @@
         <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G18" s="8">
         <v>5</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1435,14 +1434,14 @@
         <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>15</v>
@@ -1458,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -1477,7 +1476,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>52</v>
@@ -1496,7 +1495,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1517,7 +1516,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1538,7 +1537,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1546,10 +1545,10 @@
         <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -1559,7 +1558,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1567,18 +1566,17 @@
         <v>41</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G26" s="8">
         <v>1</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1586,18 +1584,15 @@
         <v>41</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
         <v>1</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1605,17 +1600,15 @@
         <v>41</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8">
         <v>1</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1623,7 +1616,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8">
@@ -1631,7 +1624,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1639,119 +1632,121 @@
         <v>41</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="8">
         <v>1</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1759,47 +1754,49 @@
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1807,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8">
@@ -1815,7 +1812,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1823,15 +1820,15 @@
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1839,7 +1836,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8">
@@ -1847,7 +1844,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1855,18 +1852,18 @@
         <v>41</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>22</v>
@@ -1876,10 +1873,10 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1890,14 +1887,14 @@
         <v>46</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1913,7 +1910,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1929,7 +1926,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1945,7 +1942,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1961,169 +1958,71 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="G51" s="8">
+        <v>2</v>
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G52" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="8">
-        <v>2</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" s="8">
-        <v>2</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
         <v>56</v>
       </c>
     </row>

--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Centrale\EPSA\Maquette_Optimus\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECF002-7A27-4F3B-ADF5-854AD7740307}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0600" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
   <si>
     <t>System</t>
   </si>
@@ -294,9 +295,6 @@
     <t>Hose clamps install</t>
   </si>
   <si>
-    <t>Tighten bolts</t>
-  </si>
-  <si>
     <t>Attach rad to frame</t>
   </si>
   <si>
@@ -346,12 +344,33 @@
   </si>
   <si>
     <t>Fixations between rad. and fan</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Hose, Stainless</t>
+  </si>
+  <si>
+    <t>Hose, Silicone</t>
+  </si>
+  <si>
+    <t>Cut stainless hose and silicone joints</t>
+  </si>
+  <si>
+    <t>Cut silicone hose</t>
+  </si>
+  <si>
+    <t>Most of the coolant line</t>
+  </si>
+  <si>
+    <t>Joints at both ends</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,27 +842,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -881,7 +900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -900,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -919,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -938,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -957,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -976,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -995,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1014,7 +1033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1033,14 +1052,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>28</v>
@@ -1052,14 +1071,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>29</v>
@@ -1078,26 +1097,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -1137,7 +1156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -1153,7 +1172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1171,7 +1190,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1185,11 +1204,11 @@
         <v>69</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1207,7 +1226,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1215,17 +1234,17 @@
         <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1233,17 +1252,17 @@
         <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1251,17 +1270,17 @@
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1272,14 +1291,14 @@
         <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1297,7 +1316,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1315,7 +1334,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1323,17 +1342,17 @@
         <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1344,14 +1363,14 @@
         <v>75</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1359,17 +1378,17 @@
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1387,7 +1406,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1398,14 +1417,14 @@
         <v>74</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1413,17 +1432,17 @@
         <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="8">
         <v>5</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1434,14 +1453,14 @@
         <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>15</v>
@@ -1457,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -1476,7 +1495,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>52</v>
@@ -1495,7 +1514,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1516,7 +1535,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1537,7 +1556,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1545,10 +1564,10 @@
         <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -1558,7 +1577,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1576,7 +1595,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1592,7 +1611,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1608,7 +1627,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1624,7 +1643,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1642,7 +1661,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>53</v>
@@ -1661,7 +1680,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>57</v>
@@ -1680,7 +1699,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>21</v>
@@ -1696,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1712,7 +1731,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1720,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8">
@@ -1728,7 +1747,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1736,17 +1755,17 @@
         <v>41</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="G36" s="8">
         <v>2</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1762,7 +1781,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>31</v>
@@ -1778,7 +1797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1796,7 +1815,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1812,7 +1831,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1828,7 +1847,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1844,7 +1863,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1860,7 +1879,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
         <v>30</v>
@@ -1876,7 +1895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1894,7 +1913,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1910,7 +1929,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1926,7 +1945,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1942,7 +1961,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1958,13 +1977,13 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1974,57 +1993,145 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="8">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="8">
+        <v>3</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="8">
+        <v>2</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G55" s="8">
         <v>2</v>
       </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
+      <c r="C56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0600.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0600.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Centrale\EPSA\Maquette_Optimus\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECF002-7A27-4F3B-ADF5-854AD7740307}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8461F87-BDF2-4F5C-8F02-437F10D3C708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>System</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>Joints at both ends</t>
+  </si>
+  <si>
+    <t>Sealing</t>
+  </si>
+  <si>
+    <t>Check expansion tank waterproofness</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,14 +1330,12 @@
         <v>41</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,10 +1346,10 @@
         <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1360,10 +1364,10 @@
         <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1378,13 +1382,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1396,13 +1400,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1414,10 +1418,10 @@
         <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1429,16 +1433,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1450,36 +1454,38 @@
         <v>42</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>4</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>23</v>
@@ -1489,48 +1495,43 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7"/>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1543,10 +1544,10 @@
         <v>39</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>40</v>
@@ -1561,16 +1562,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H25" s="7"/>
       <c r="J25" s="10"/>
@@ -1585,15 +1586,18 @@
         <v>41</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G26" s="8">
         <v>1</v>
       </c>
       <c r="H26" s="7"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -1603,9 +1607,11 @@
         <v>41</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G27" s="8">
         <v>1</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
@@ -1635,7 +1641,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8">
@@ -1651,39 +1657,36 @@
         <v>41</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>23</v>
@@ -1693,61 +1696,64 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>1</v>
+      <c r="G35" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1755,17 +1761,15 @@
         <v>41</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1773,65 +1777,67 @@
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="G37" s="8">
         <v>2</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1839,7 +1845,7 @@
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8">
@@ -1847,7 +1853,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1855,7 +1861,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8">
@@ -1863,7 +1869,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1871,7 +1877,7 @@
         <v>41</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
@@ -1879,57 +1885,57 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1937,7 +1943,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8">
@@ -1945,7 +1951,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1953,7 +1959,7 @@
         <v>41</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
@@ -1969,7 +1975,7 @@
         <v>41</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8">
@@ -1977,39 +1983,37 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -2019,10 +2023,10 @@
         <v>39</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>40</v>
@@ -2034,16 +2038,16 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="8">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -2055,13 +2059,13 @@
         <v>41</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G54" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -2070,68 +2074,86 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G55" s="8">
         <v>2</v>
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="8">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="8">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7"/>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
